--- a/Data/Transitions/19571973Translation.xlsx
+++ b/Data/Transitions/19571973Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="668">
   <si>
     <t>id</t>
   </si>
@@ -595,7 +595,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
+    <t>{320.0: 1.0, 242.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1706,6 +1706,9 @@
   </si>
   <si>
     <t>{315.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{320.0: 0.43431836980224076, 242.0: 0.5656816301977592}</t>
   </si>
   <si>
     <t>{400.0: 0.9874941009910335, 50.0: 0.008788675988621757, 96.0: 0.0017704710454288894, 100.0: 0.0019467519749158475}</t>
@@ -4487,7 +4490,7 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>564</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4520,7 +4523,7 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4531,7 +4534,7 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4542,7 +4545,7 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4564,7 +4567,7 @@
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4608,7 +4611,7 @@
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4674,7 +4677,7 @@
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4718,7 +4721,7 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4729,7 +4732,7 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4751,7 +4754,7 @@
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4828,7 +4831,7 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4872,7 +4875,7 @@
         <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4894,7 +4897,7 @@
         <v>230</v>
       </c>
       <c r="C229" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4938,7 +4941,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4949,7 +4952,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4960,7 +4963,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4971,7 +4974,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4982,7 +4985,7 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5114,7 +5117,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5125,7 +5128,7 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5169,7 +5172,7 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5180,7 +5183,7 @@
         <v>256</v>
       </c>
       <c r="C255" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5257,7 +5260,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5268,7 +5271,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5301,7 +5304,7 @@
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5323,7 +5326,7 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5334,7 +5337,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5345,7 +5348,7 @@
         <v>271</v>
       </c>
       <c r="C270" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5378,7 +5381,7 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5411,7 +5414,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5422,7 +5425,7 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5455,7 +5458,7 @@
         <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5477,7 +5480,7 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5488,7 +5491,7 @@
         <v>284</v>
       </c>
       <c r="C283" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5510,7 +5513,7 @@
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5532,7 +5535,7 @@
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5554,7 +5557,7 @@
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5609,7 +5612,7 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5642,7 +5645,7 @@
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5730,7 +5733,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5741,7 +5744,7 @@
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5774,7 +5777,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5796,7 +5799,7 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5862,7 +5865,7 @@
         <v>318</v>
       </c>
       <c r="C317" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5884,7 +5887,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5895,7 +5898,7 @@
         <v>321</v>
       </c>
       <c r="C320" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5917,7 +5920,7 @@
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5972,7 +5975,7 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5994,7 +5997,7 @@
         <v>330</v>
       </c>
       <c r="C329" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -6060,7 +6063,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6071,7 +6074,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6082,7 +6085,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6093,7 +6096,7 @@
         <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6104,7 +6107,7 @@
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6159,7 +6162,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6181,7 +6184,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6192,7 +6195,7 @@
         <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6225,7 +6228,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6236,7 +6239,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6280,7 +6283,7 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6313,7 +6316,7 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6357,7 +6360,7 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6368,7 +6371,7 @@
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6401,7 +6404,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6423,7 +6426,7 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6456,7 +6459,7 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6500,7 +6503,7 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6731,7 +6734,7 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6775,7 +6778,7 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6786,7 +6789,7 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6819,7 +6822,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6830,7 +6833,7 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -6841,7 +6844,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -6852,7 +6855,7 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -6863,7 +6866,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6885,7 +6888,7 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -6929,7 +6932,7 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -6951,7 +6954,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -6973,7 +6976,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -6995,7 +6998,7 @@
         <v>421</v>
       </c>
       <c r="C420" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7050,7 +7053,7 @@
         <v>426</v>
       </c>
       <c r="C425" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7105,7 +7108,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7116,7 +7119,7 @@
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7127,7 +7130,7 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7182,7 +7185,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7193,7 +7196,7 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7204,7 +7207,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7215,7 +7218,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7226,7 +7229,7 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7237,7 +7240,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7259,7 +7262,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7281,7 +7284,7 @@
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7358,7 +7361,7 @@
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7391,7 +7394,7 @@
         <v>457</v>
       </c>
       <c r="C456" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7424,7 +7427,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7457,7 +7460,7 @@
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7490,7 +7493,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7512,7 +7515,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7534,7 +7537,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7556,7 +7559,7 @@
         <v>472</v>
       </c>
       <c r="C471" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7567,7 +7570,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7589,7 +7592,7 @@
         <v>475</v>
       </c>
       <c r="C474" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -7600,7 +7603,7 @@
         <v>476</v>
       </c>
       <c r="C475" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -7699,7 +7702,7 @@
         <v>485</v>
       </c>
       <c r="C484" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>
